--- a/Cidades/Bom Jardim de Minas_3107505.xlsx
+++ b/Cidades/Bom Jardim de Minas_3107505.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="35">
   <si>
     <t>Nome_UF</t>
   </si>
@@ -136,7 +136,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -503,7 +503,7 @@
     <col min="6" max="6" style="3" width="11.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,8 +556,12 @@
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
       <c r="A4" s="2" t="s">
@@ -732,8 +736,12 @@
       <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="16.5">
       <c r="A13" s="2" t="s">
@@ -748,8 +756,12 @@
       <c r="D13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="16.5">
       <c r="A14" s="2" t="s">
@@ -764,8 +776,12 @@
       <c r="D14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
